--- a/Patentes.xlsx
+++ b/Patentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F0D20-025A-4C93-B764-70E754972A96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9B6BC-D7AB-4F14-B341-C29F9F029078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A4C72E-95C1-46DE-96C1-7D101AAC3AF7}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2162C37-3D57-4B5F-8828-CB4EBE50061D}">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Patentes.xlsx
+++ b/Patentes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9B6BC-D7AB-4F14-B341-C29F9F029078}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BBDCC-F997-4490-837D-A2B62C8209AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A4C72E-95C1-46DE-96C1-7D101AAC3AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Consultar usuario</t>
   </si>
@@ -139,6 +140,24 @@
   </si>
   <si>
     <t>Consultar documento</t>
+  </si>
+  <si>
+    <t>Id_familia</t>
+  </si>
+  <si>
+    <t>Descripcion_familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador de sistema                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operador de terminal                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefe de producto                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefe de terminal                                  </t>
   </si>
 </sst>
 </file>
@@ -492,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2162C37-3D57-4B5F-8828-CB4EBE50061D}">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,4 +1511,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EC6F0E-670E-4593-82D5-1FC958679EDA}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Patentes.xlsx
+++ b/Patentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BBDCC-F997-4490-837D-A2B62C8209AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A93750-D478-4862-BB52-D32E30ACFECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A4C72E-95C1-46DE-96C1-7D101AAC3AF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Consultar usuario</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jefe de terminal                                  </t>
+  </si>
+  <si>
+    <t>Blanquear contraseña</t>
+  </si>
+  <si>
+    <t>Asignar familia-usuario</t>
   </si>
 </sst>
 </file>
@@ -511,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2162C37-3D57-4B5F-8828-CB4EBE50061D}">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +818,16 @@
       <c r="A37">
         <v>37</v>
       </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">

--- a/Patentes.xlsx
+++ b/Patentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A93750-D478-4862-BB52-D32E30ACFECA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F6F23-E22F-40C8-AF79-8B277DD43796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A4C72E-95C1-46DE-96C1-7D101AAC3AF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Consultar usuario</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Asignar familia-usuario</t>
+  </si>
+  <si>
+    <t>Recalcular digito verificador</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2162C37-3D57-4B5F-8828-CB4EBE50061D}">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +836,9 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">

--- a/Patentes.xlsx
+++ b/Patentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F6F23-E22F-40C8-AF79-8B277DD43796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD653E-8AF3-4B8D-967C-A72801316281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71A4C72E-95C1-46DE-96C1-7D101AAC3AF7}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
